--- a/webapp/input/Dash_LCOE_ConfigurationV4.xlsx
+++ b/webapp/input/Dash_LCOE_ConfigurationV4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\LCOEcalc\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\LCOEcalc\webapp\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BFEF797-4E82-4514-9EE7-95B90A23EEF4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA74C565-7703-47A9-932A-FD32BABD00FC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Systems" sheetId="1" r:id="rId1"/>
@@ -621,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -768,7 +768,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G6" s="5">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -791,7 +791,7 @@
         <v>0.05</v>
       </c>
       <c r="G7" s="5">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -837,7 +837,7 @@
         <v>35</v>
       </c>
       <c r="G9" s="5">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -860,7 +860,7 @@
         <v>25</v>
       </c>
       <c r="G10" s="5">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1502,8 +1502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5708E7F0-2DE7-4611-91D4-02BADD085AA2}">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1513,8 +1513,10 @@
     <col min="3" max="3" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="21.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="21.109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -1532,13 +1534,13 @@
         <v>42</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -2222,7 +2224,7 @@
   <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2379,7 +2381,7 @@
         <v>-10</v>
       </c>
       <c r="I5" s="1">
-        <v>-10</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -2870,8 +2872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16DF341-8C1A-4D19-88F8-FE2D2A0FBA8F}">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2946,7 +2948,7 @@
         <v>44</v>
       </c>
       <c r="F3" s="5">
-        <v>9.1999999999999998E-2</v>
+        <v>9.1999999999999998E-3</v>
       </c>
       <c r="G3" s="5">
         <f>G2*0.9</f>
